--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_100ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_100ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1652,28 +1652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>152.5096489237417</v>
+        <v>176.7302579505056</v>
       </c>
       <c r="AB2" t="n">
-        <v>208.6704299082244</v>
+        <v>241.8101357164827</v>
       </c>
       <c r="AC2" t="n">
-        <v>188.7552169486308</v>
+        <v>218.7321157464286</v>
       </c>
       <c r="AD2" t="n">
-        <v>152509.6489237417</v>
+        <v>176730.2579505056</v>
       </c>
       <c r="AE2" t="n">
-        <v>208670.4299082244</v>
+        <v>241810.1357164827</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.558888359543555e-06</v>
+        <v>8.435137047909631e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>188755.2169486308</v>
+        <v>218732.1157464286</v>
       </c>
     </row>
     <row r="3">
@@ -1758,28 +1758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>89.51824313697934</v>
+        <v>101.6285924046368</v>
       </c>
       <c r="AB3" t="n">
-        <v>122.4828095261269</v>
+        <v>139.0527236650302</v>
       </c>
       <c r="AC3" t="n">
-        <v>110.7932220906883</v>
+        <v>125.7817268802005</v>
       </c>
       <c r="AD3" t="n">
-        <v>89518.24313697933</v>
+        <v>101628.5924046368</v>
       </c>
       <c r="AE3" t="n">
-        <v>122482.8095261269</v>
+        <v>139052.7236650302</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.266903236776704e-06</v>
+        <v>1.159541175373126e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.425</v>
       </c>
       <c r="AH3" t="n">
-        <v>110793.2220906883</v>
+        <v>125781.7268802005</v>
       </c>
     </row>
   </sheetData>
@@ -2055,28 +2055,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.09603575583986</v>
+        <v>116.5381191667024</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.3781032283199</v>
+        <v>159.4525959427764</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.2213158325334</v>
+        <v>144.2346639791657</v>
       </c>
       <c r="AD2" t="n">
-        <v>93096.03575583987</v>
+        <v>116538.1191667024</v>
       </c>
       <c r="AE2" t="n">
-        <v>127378.1032283199</v>
+        <v>159452.5959427764</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.948632290691592e-06</v>
+        <v>1.133901121274814e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.642708333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>115221.3158325334</v>
+        <v>144234.6639791657</v>
       </c>
     </row>
     <row r="3">
@@ -2161,28 +2161,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.62588198852225</v>
+        <v>100.4749349758109</v>
       </c>
       <c r="AB3" t="n">
-        <v>121.2618416346131</v>
+        <v>137.4742386751378</v>
       </c>
       <c r="AC3" t="n">
-        <v>109.688781661101</v>
+        <v>124.3538902823253</v>
       </c>
       <c r="AD3" t="n">
-        <v>88625.88198852225</v>
+        <v>100474.9349758109</v>
       </c>
       <c r="AE3" t="n">
-        <v>121261.8416346131</v>
+        <v>137474.2386751378</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.180891090076994e-06</v>
+        <v>1.178173232943433e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.54375</v>
       </c>
       <c r="AH3" t="n">
-        <v>109688.781661101</v>
+        <v>124353.8902823253</v>
       </c>
     </row>
   </sheetData>
@@ -2458,28 +2458,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.9770873059093</v>
+        <v>130.7333800876986</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.4755026985466</v>
+        <v>178.875178185587</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.1143319147328</v>
+        <v>161.8035822324939</v>
       </c>
       <c r="AD2" t="n">
-        <v>109977.0873059093</v>
+        <v>130733.3800876986</v>
       </c>
       <c r="AE2" t="n">
-        <v>150475.5026985466</v>
+        <v>178875.178185587</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.216514425243333e-06</v>
+        <v>1.110981054863656e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.3625</v>
       </c>
       <c r="AH2" t="n">
-        <v>136114.3319147328</v>
+        <v>161803.5822324939</v>
       </c>
     </row>
   </sheetData>
@@ -2755,28 +2755,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.36374083078572</v>
+        <v>113.2219920686145</v>
       </c>
       <c r="AB2" t="n">
-        <v>125.0079008884036</v>
+        <v>154.9153245499724</v>
       </c>
       <c r="AC2" t="n">
-        <v>113.0773222773381</v>
+        <v>140.130423399989</v>
       </c>
       <c r="AD2" t="n">
-        <v>91363.74083078571</v>
+        <v>113221.9920686145</v>
       </c>
       <c r="AE2" t="n">
-        <v>125007.9008884036</v>
+        <v>154915.3245499723</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.757160873151446e-06</v>
+        <v>1.168902700529598e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.914583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>113077.3222773381</v>
+        <v>140130.423399989</v>
       </c>
     </row>
   </sheetData>
@@ -3052,28 +3052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.2631185755358</v>
+        <v>153.2319017573726</v>
       </c>
       <c r="AB2" t="n">
-        <v>168.6540368199725</v>
+        <v>209.6586480987438</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.5579322533485</v>
+        <v>189.6491209820203</v>
       </c>
       <c r="AD2" t="n">
-        <v>123263.1185755358</v>
+        <v>153231.9017573726</v>
       </c>
       <c r="AE2" t="n">
-        <v>168654.0368199725</v>
+        <v>209658.6480987438</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.585978293316248e-06</v>
+        <v>1.021207790740263e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.972916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>152557.9322533485</v>
+        <v>189649.1209820203</v>
       </c>
     </row>
   </sheetData>
@@ -3349,28 +3349,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.24961042440435</v>
+        <v>122.9187302250161</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.7976955664001</v>
+        <v>168.18282948545</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.837354094842</v>
+        <v>152.131696285489</v>
       </c>
       <c r="AD2" t="n">
-        <v>99249.61042440435</v>
+        <v>122918.7302250161</v>
       </c>
       <c r="AE2" t="n">
-        <v>135797.6955664001</v>
+        <v>168182.82948545</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.711536796590608e-06</v>
+        <v>1.079916626699593e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.728125</v>
       </c>
       <c r="AH2" t="n">
-        <v>122837.354094842</v>
+        <v>152131.696285489</v>
       </c>
     </row>
     <row r="3">
@@ -3455,28 +3455,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.26678882888901</v>
+        <v>100.0587678104601</v>
       </c>
       <c r="AB3" t="n">
-        <v>120.770514531531</v>
+        <v>136.9048203995055</v>
       </c>
       <c r="AC3" t="n">
-        <v>109.244346127155</v>
+        <v>123.8388164877356</v>
       </c>
       <c r="AD3" t="n">
-        <v>88266.78882888901</v>
+        <v>100058.7678104601</v>
       </c>
       <c r="AE3" t="n">
-        <v>120770.514531531</v>
+        <v>136904.8203995055</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.236940152698985e-06</v>
+        <v>1.179257984409815e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.497916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>109244.346127155</v>
+        <v>123838.8164877356</v>
       </c>
     </row>
   </sheetData>
@@ -3752,28 +3752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.34328862633</v>
+        <v>166.0278074504989</v>
       </c>
       <c r="AB2" t="n">
-        <v>200.2333437086932</v>
+        <v>227.166570783588</v>
       </c>
       <c r="AC2" t="n">
-        <v>181.1233544144553</v>
+        <v>205.4861120983524</v>
       </c>
       <c r="AD2" t="n">
-        <v>146343.28862633</v>
+        <v>166027.8074504989</v>
       </c>
       <c r="AE2" t="n">
-        <v>200233.3437086932</v>
+        <v>227166.570783588</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.131546909360977e-06</v>
+        <v>9.471847062964695e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.5125</v>
       </c>
       <c r="AH2" t="n">
-        <v>181123.3544144553</v>
+        <v>205486.1120983524</v>
       </c>
     </row>
   </sheetData>
@@ -4049,28 +4049,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.15710260239342</v>
+        <v>111.8623430811355</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.9886811143108</v>
+        <v>153.0549928218246</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.3462526009821</v>
+        <v>138.4476391209831</v>
       </c>
       <c r="AD2" t="n">
-        <v>89157.10260239342</v>
+        <v>111862.3430811355</v>
       </c>
       <c r="AE2" t="n">
-        <v>121988.6811143107</v>
+        <v>153054.9928218246</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.01775949316224e-06</v>
+        <v>1.179472544155788e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.691666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>110346.2526009821</v>
+        <v>138447.6391209831</v>
       </c>
     </row>
     <row r="3">
@@ -4155,28 +4155,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>89.00955455275465</v>
+        <v>111.7147950314967</v>
       </c>
       <c r="AB3" t="n">
-        <v>121.7867993634346</v>
+        <v>152.8531110709484</v>
       </c>
       <c r="AC3" t="n">
-        <v>110.1636381610667</v>
+        <v>138.2650246810676</v>
       </c>
       <c r="AD3" t="n">
-        <v>89009.55455275465</v>
+        <v>111714.7950314967</v>
       </c>
       <c r="AE3" t="n">
-        <v>121786.7993634345</v>
+        <v>152853.1110709484</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.040616468137561e-06</v>
+        <v>1.183952479662762e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.68125</v>
       </c>
       <c r="AH3" t="n">
-        <v>110163.6381610667</v>
+        <v>138265.0246810676</v>
       </c>
     </row>
   </sheetData>
@@ -4452,28 +4452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.86189992688334</v>
+        <v>101.5931180474594</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.9530159071409</v>
+        <v>139.0041860845219</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.2185526346372</v>
+        <v>125.737821658253</v>
       </c>
       <c r="AD2" t="n">
-        <v>89861.89992688334</v>
+        <v>101593.1180474594</v>
       </c>
       <c r="AE2" t="n">
-        <v>122953.0159071409</v>
+        <v>139004.1860845219</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.064398525438842e-06</v>
+        <v>1.166003773071556e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.616666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>111218.5526346372</v>
+        <v>125737.821658253</v>
       </c>
     </row>
     <row r="3">
@@ -4558,28 +4558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.36544964578167</v>
+        <v>100.0966677663577</v>
       </c>
       <c r="AB3" t="n">
-        <v>120.9055066138116</v>
+        <v>136.9566767911927</v>
       </c>
       <c r="AC3" t="n">
-        <v>109.3664547545653</v>
+        <v>123.8857237781811</v>
       </c>
       <c r="AD3" t="n">
-        <v>88365.44964578167</v>
+        <v>100096.6677663577</v>
       </c>
       <c r="AE3" t="n">
-        <v>120905.5066138116</v>
+        <v>136956.6767911927</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.158093071314964e-06</v>
+        <v>1.184018452276676e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.577083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>109366.4547545653</v>
+        <v>123885.7237781811</v>
       </c>
     </row>
   </sheetData>
@@ -4855,28 +4855,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.5346869940086</v>
+        <v>147.627631941929</v>
       </c>
       <c r="AB2" t="n">
-        <v>185.4445381135082</v>
+        <v>201.990638894323</v>
       </c>
       <c r="AC2" t="n">
-        <v>167.745971669051</v>
+        <v>182.7129358139484</v>
       </c>
       <c r="AD2" t="n">
-        <v>135534.6869940085</v>
+        <v>147627.631941929</v>
       </c>
       <c r="AE2" t="n">
-        <v>185444.5381135082</v>
+        <v>201990.638894323</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.950606605590828e-06</v>
+        <v>9.22260462040688e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.09375</v>
       </c>
       <c r="AH2" t="n">
-        <v>167745.971669051</v>
+        <v>182712.9358139484</v>
       </c>
     </row>
     <row r="3">
@@ -4961,28 +4961,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.98886850247052</v>
+        <v>100.9964725958193</v>
       </c>
       <c r="AB3" t="n">
-        <v>121.7584957968317</v>
+        <v>138.1878294554488</v>
       </c>
       <c r="AC3" t="n">
-        <v>110.1380358471361</v>
+        <v>124.9993769600947</v>
       </c>
       <c r="AD3" t="n">
-        <v>88988.86850247052</v>
+        <v>100996.4725958193</v>
       </c>
       <c r="AE3" t="n">
-        <v>121758.4957968317</v>
+        <v>138187.8294554488</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.26479811138793e-06</v>
+        <v>1.16708437189804e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.444791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>110138.0358471361</v>
+        <v>124999.3769600947</v>
       </c>
     </row>
   </sheetData>
@@ -5258,28 +5258,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.22721194441093</v>
+        <v>112.3828380680571</v>
       </c>
       <c r="AB2" t="n">
-        <v>123.4528519259506</v>
+        <v>153.7671570255486</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.6706850053362</v>
+        <v>139.0918353726327</v>
       </c>
       <c r="AD2" t="n">
-        <v>90227.21194441093</v>
+        <v>112382.8380680571</v>
       </c>
       <c r="AE2" t="n">
-        <v>123452.8519259506</v>
+        <v>153767.1570255486</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.867420578671899e-06</v>
+        <v>1.176122903041127e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.823958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>111670.6850053362</v>
+        <v>139091.8353726327</v>
       </c>
     </row>
     <row r="3">
@@ -5364,28 +5364,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>90.57767498375816</v>
+        <v>112.7333011074043</v>
       </c>
       <c r="AB3" t="n">
-        <v>123.9323709177233</v>
+        <v>154.2466760173214</v>
       </c>
       <c r="AC3" t="n">
-        <v>112.1044393775434</v>
+        <v>139.5255897448399</v>
       </c>
       <c r="AD3" t="n">
-        <v>90577.67498375816</v>
+        <v>112733.3011074043</v>
       </c>
       <c r="AE3" t="n">
-        <v>123932.3709177233</v>
+        <v>154246.6760173214</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.868056923835249e-06</v>
+        <v>1.176250458260805e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.823958333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>112104.4393775434</v>
+        <v>139525.5897448399</v>
       </c>
     </row>
   </sheetData>
@@ -5661,28 +5661,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>106.5498018940176</v>
+        <v>117.1951404094405</v>
       </c>
       <c r="AB2" t="n">
-        <v>145.7861395968376</v>
+        <v>160.3515613928218</v>
       </c>
       <c r="AC2" t="n">
-        <v>131.8725150458869</v>
+        <v>145.0478334283649</v>
       </c>
       <c r="AD2" t="n">
-        <v>106549.8018940176</v>
+        <v>117195.1404094405</v>
       </c>
       <c r="AE2" t="n">
-        <v>145786.1395968376</v>
+        <v>160351.5613928218</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.433137890406003e-06</v>
+        <v>1.136646424385545e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.177083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>131872.5150458869</v>
+        <v>145047.8334283649</v>
       </c>
     </row>
   </sheetData>
@@ -9163,28 +9163,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.3545030194717</v>
+        <v>135.8852734252594</v>
       </c>
       <c r="AB2" t="n">
-        <v>157.8331201126771</v>
+        <v>185.9242259355272</v>
       </c>
       <c r="AC2" t="n">
-        <v>142.7697486493419</v>
+        <v>168.1798787585828</v>
       </c>
       <c r="AD2" t="n">
-        <v>115354.5030194717</v>
+        <v>135885.2734252594</v>
       </c>
       <c r="AE2" t="n">
-        <v>157833.1201126771</v>
+        <v>185924.2259355272</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.934117830731247e-06</v>
+        <v>1.072606051548856e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.61875</v>
       </c>
       <c r="AH2" t="n">
-        <v>142769.7486493419</v>
+        <v>168179.8787585828</v>
       </c>
     </row>
   </sheetData>
@@ -9460,28 +9460,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>179.7712341077327</v>
+        <v>208.1377739302618</v>
       </c>
       <c r="AB2" t="n">
-        <v>245.9709334531984</v>
+        <v>284.7832846817778</v>
       </c>
       <c r="AC2" t="n">
-        <v>222.4958127868698</v>
+        <v>257.6039676876831</v>
       </c>
       <c r="AD2" t="n">
-        <v>179771.2341077327</v>
+        <v>208137.7739302618</v>
       </c>
       <c r="AE2" t="n">
-        <v>245970.9334531984</v>
+        <v>284783.2846817778</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.515148480084987e-06</v>
+        <v>8.360875440669267e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.452083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>222495.8127868698</v>
+        <v>257603.967687683</v>
       </c>
     </row>
   </sheetData>
@@ -9757,28 +9757,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.24452082169084</v>
+        <v>112.2056925694261</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.108290578573</v>
+        <v>153.524778739214</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.4544467058482</v>
+        <v>138.8725893297656</v>
       </c>
       <c r="AD2" t="n">
-        <v>89244.52082169084</v>
+        <v>112205.6925694261</v>
       </c>
       <c r="AE2" t="n">
-        <v>122108.2905785731</v>
+        <v>153524.7787392139</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.056620504356515e-06</v>
+        <v>1.175334568607372e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.645833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>110454.4467058482</v>
+        <v>138872.5893297656</v>
       </c>
     </row>
     <row r="3">
@@ -9863,28 +9863,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.62233801304652</v>
+        <v>100.2309351687716</v>
       </c>
       <c r="AB3" t="n">
-        <v>121.2569926110181</v>
+        <v>137.1403873746349</v>
       </c>
       <c r="AC3" t="n">
-        <v>109.6843954215122</v>
+        <v>124.0519012813791</v>
       </c>
       <c r="AD3" t="n">
-        <v>88622.33801304652</v>
+        <v>100230.9351687716</v>
       </c>
       <c r="AE3" t="n">
-        <v>121256.9926110181</v>
+        <v>137140.3873746349</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.103396903760111e-06</v>
+        <v>1.18441189467964e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.626041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>109684.3954215122</v>
+        <v>124051.9012813791</v>
       </c>
     </row>
   </sheetData>
@@ -10160,28 +10160,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.9116928922575</v>
+        <v>133.8000134459345</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.3860271767903</v>
+        <v>183.0710812366386</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.0333958111932</v>
+        <v>165.5990341853415</v>
       </c>
       <c r="AD2" t="n">
-        <v>109911.6928922575</v>
+        <v>133800.0134459345</v>
       </c>
       <c r="AE2" t="n">
-        <v>150386.0271767903</v>
+        <v>183071.0812366386</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.337411003951391e-06</v>
+        <v>1.001507653209734e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.89375</v>
       </c>
       <c r="AH2" t="n">
-        <v>136033.3958111932</v>
+        <v>165599.0341853415</v>
       </c>
     </row>
     <row r="3">
@@ -10266,28 +10266,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.72991326541828</v>
+        <v>100.631492623522</v>
       </c>
       <c r="AB3" t="n">
-        <v>121.4041818171982</v>
+        <v>137.6884477555719</v>
       </c>
       <c r="AC3" t="n">
-        <v>109.8175370964359</v>
+        <v>124.5476555487672</v>
       </c>
       <c r="AD3" t="n">
-        <v>88729.91326541828</v>
+        <v>100631.492623522</v>
       </c>
       <c r="AE3" t="n">
-        <v>121404.1818171982</v>
+        <v>137688.4477555719</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.247663695932878e-06</v>
+        <v>1.17230676099801e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.471875</v>
       </c>
       <c r="AH3" t="n">
-        <v>109817.5370964359</v>
+        <v>124547.6555487672</v>
       </c>
     </row>
   </sheetData>
@@ -10563,28 +10563,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>248.2033178473578</v>
+        <v>284.6734974997023</v>
       </c>
       <c r="AB2" t="n">
-        <v>339.60272943617</v>
+        <v>389.5028381874402</v>
       </c>
       <c r="AC2" t="n">
-        <v>307.1915215743074</v>
+        <v>352.3292339814969</v>
       </c>
       <c r="AD2" t="n">
-        <v>248203.3178473578</v>
+        <v>284673.4974997023</v>
       </c>
       <c r="AE2" t="n">
-        <v>339602.72943617</v>
+        <v>389502.8381874402</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.670943508197888e-06</v>
+        <v>6.679827017350977e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.430208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>307191.5215743075</v>
+        <v>352329.2339814969</v>
       </c>
     </row>
   </sheetData>
@@ -10860,28 +10860,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.0987481079021</v>
+        <v>114.9127845907959</v>
       </c>
       <c r="AB2" t="n">
-        <v>142.4324996738147</v>
+        <v>157.2287414713215</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.8389418102531</v>
+        <v>142.2230510572663</v>
       </c>
       <c r="AD2" t="n">
-        <v>104098.7481079021</v>
+        <v>114912.7845907959</v>
       </c>
       <c r="AE2" t="n">
-        <v>142432.4996738147</v>
+        <v>157228.7414713215</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.612285624500777e-06</v>
+        <v>1.155728694877444e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.03125</v>
       </c>
       <c r="AH2" t="n">
-        <v>128838.9418102531</v>
+        <v>142223.0510572663</v>
       </c>
     </row>
   </sheetData>
@@ -11157,28 +11157,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.720495060941</v>
+        <v>112.1577688639162</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.7595395312163</v>
+        <v>153.4592074110907</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.043541372485</v>
+        <v>138.8132760371685</v>
       </c>
       <c r="AD2" t="n">
-        <v>89720.495060941</v>
+        <v>112157.7688639162</v>
       </c>
       <c r="AE2" t="n">
-        <v>122759.5395312163</v>
+        <v>153459.2074110907</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.944745684443846e-06</v>
+        <v>1.177763569860968e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.755208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>111043.541372485</v>
+        <v>138813.2760371685</v>
       </c>
     </row>
     <row r="3">
@@ -11263,28 +11263,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>89.22393593708833</v>
+        <v>111.6612097400635</v>
       </c>
       <c r="AB3" t="n">
-        <v>122.0801254313189</v>
+        <v>152.7797933111933</v>
       </c>
       <c r="AC3" t="n">
-        <v>110.428969600718</v>
+        <v>138.1987042654015</v>
       </c>
       <c r="AD3" t="n">
-        <v>89223.93593708833</v>
+        <v>111661.2097400635</v>
       </c>
       <c r="AE3" t="n">
-        <v>122080.1254313189</v>
+        <v>152779.7933111934</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.985623573892827e-06</v>
+        <v>1.185862232370921e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.736458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>110428.969600718</v>
+        <v>138198.7042654015</v>
       </c>
     </row>
   </sheetData>
